--- a/data/trans_dic/P3A$otraSIcobraNOhogar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobraNOhogar-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.05620016793455423</v>
+        <v>0.05620016793455422</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.07934744044860047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.06978604471462171</v>
+        <v>0.0697860447146217</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04126742053292232</v>
+        <v>0.04086526841426625</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06507393779641746</v>
+        <v>0.06537103722628436</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05956806608238067</v>
+        <v>0.05922909892988491</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07507786618260448</v>
+        <v>0.07574134293705671</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09285288640872949</v>
+        <v>0.09241100591691587</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08062966529643824</v>
+        <v>0.08180130105104219</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.009416399765620666</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.009043891923124768</v>
+        <v>0.009043891923124769</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005617663803328777</v>
+        <v>0.00579883916209971</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006659878710052211</v>
+        <v>0.006587684371240116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007063050570442834</v>
+        <v>0.00660920495150765</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01284260744172522</v>
+        <v>0.01298831384918916</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01339278732426863</v>
+        <v>0.01336899847793751</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01189093716293558</v>
+        <v>0.01168971113573358</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005580782137466237</v>
+        <v>0.005929936279891521</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001395608991780209</v>
+        <v>0.001464827022267333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005260960215697228</v>
+        <v>0.004720275667355365</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03350073910567111</v>
+        <v>0.03024927317978258</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.009087060772391109</v>
+        <v>0.008511148597253436</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02031608703185821</v>
+        <v>0.01998385041493918</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.02375014339843804</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02074990844985296</v>
+        <v>0.02074990844985297</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0140645667347768</v>
+        <v>0.01403718275144766</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02020861986317835</v>
+        <v>0.02025593584194682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01791428607924602</v>
+        <v>0.01806806902618829</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02259599736349906</v>
+        <v>0.02307134264095431</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02746279341102078</v>
+        <v>0.02782367429378706</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02378482867394854</v>
+        <v>0.02387515037928524</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23874</v>
+        <v>23642</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>53493</v>
+        <v>53737</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>83429</v>
+        <v>82954</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43435</v>
+        <v>43819</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>76329</v>
+        <v>75965</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>112927</v>
+        <v>114568</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12524</v>
+        <v>12928</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14453</v>
+        <v>14296</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31075</v>
+        <v>29078</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28632</v>
+        <v>28957</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29064</v>
+        <v>29013</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>52316</v>
+        <v>51430</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3971</v>
+        <v>4220</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1026</v>
+        <v>1076</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7610</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23839</v>
+        <v>21525</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6678</v>
+        <v>6255</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29386</v>
+        <v>28906</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>49502</v>
+        <v>49405</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>75319</v>
+        <v>75495</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>129819</v>
+        <v>130933</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>79529</v>
+        <v>81202</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>102356</v>
+        <v>103701</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>172360</v>
+        <v>173015</v>
       </c>
     </row>
     <row r="20">
